--- a/artfynd/A 37322-2022 artfynd.xlsx
+++ b/artfynd/A 37322-2022 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130581360</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>130581363</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         <v>130581357</v>
       </c>
       <c r="B4" t="n">
-        <v>80345</v>
+        <v>80349</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>130581359</v>
       </c>
       <c r="B5" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>130581364</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>130581361</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>130581367</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>130581366</v>
       </c>
       <c r="B9" t="n">
-        <v>80345</v>
+        <v>80349</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>130581368</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>130581362</v>
       </c>
       <c r="B11" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>130581365</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
